--- a/data/trans_dic/P36$fruta-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,85</t>
+          <t>2,74; 7,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 17,12</t>
+          <t>8,64; 16,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,65</t>
+          <t>6,46; 14,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,02</t>
+          <t>2,51; 8,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,12</t>
+          <t>9,78; 18,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,59</t>
+          <t>8,08; 15,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,88</t>
+          <t>3,2; 6,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,58</t>
+          <t>10,42; 16,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,4</t>
+          <t>8,31; 13,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 17,01</t>
+          <t>10,63; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,55</t>
+          <t>9,29; 15,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,09</t>
+          <t>7,7; 13,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,3</t>
+          <t>11,26; 16,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,47</t>
+          <t>5,54; 10,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,09</t>
+          <t>8,38; 13,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,17</t>
+          <t>11,65; 16,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,17</t>
+          <t>8,1; 11,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 12,72</t>
+          <t>8,61; 12,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,1</t>
+          <t>2,77; 7,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,92</t>
+          <t>6,45; 13,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,61</t>
+          <t>7,1; 14,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 13,76</t>
+          <t>7,17; 13,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 19,79</t>
+          <t>11,62; 19,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,25</t>
+          <t>7,1; 13,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,74</t>
+          <t>5,68; 9,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,19</t>
+          <t>9,95; 15,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,62</t>
+          <t>7,88; 12,32</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,58</t>
+          <t>3,51; 8,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,17</t>
+          <t>7,81; 14,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 19,55</t>
+          <t>11,66; 18,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,85</t>
+          <t>8,34; 14,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,89</t>
+          <t>8,86; 15,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,4</t>
+          <t>7,5; 14,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,88</t>
+          <t>6,68; 10,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,9</t>
+          <t>9,11; 13,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,58</t>
+          <t>10,56; 15,6</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,31</t>
+          <t>2,15; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,93</t>
+          <t>3,74; 11,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 17,58</t>
+          <t>8,6; 17,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,97</t>
+          <t>1,41; 7,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,99</t>
+          <t>4,29; 11,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,95</t>
+          <t>9,37; 18,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,46</t>
+          <t>2,32; 6,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,6</t>
+          <t>4,65; 9,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,9</t>
+          <t>10,17; 16,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,8</t>
+          <t>1,76; 5,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,5</t>
+          <t>6,71; 14,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,98; 18,37</t>
+          <t>10,19; 19,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 15,43</t>
+          <t>7,7; 15,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 19,97</t>
+          <t>10,84; 19,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 18,89</t>
+          <t>10,68; 19,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,89</t>
+          <t>5,34; 9,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,37; 15,92</t>
+          <t>10,01; 16,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,52</t>
+          <t>11,49; 17,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,96</t>
+          <t>6,2; 11,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,15</t>
+          <t>12,04; 17,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,87</t>
+          <t>14,62; 20,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 18,09</t>
+          <t>12,32; 18,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,56</t>
+          <t>14,68; 20,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,43</t>
+          <t>15,13; 21,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,6</t>
+          <t>10,02; 13,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,03; 18,49</t>
+          <t>14,02; 18,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,83; 20,13</t>
+          <t>15,92; 20,13</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,24</t>
+          <t>8,62; 13,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,89</t>
+          <t>11,05; 15,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,81</t>
+          <t>9,83; 14,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,5</t>
+          <t>6,56; 10,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,73</t>
+          <t>9,02; 13,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,53</t>
+          <t>11,51; 16,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,23</t>
+          <t>8,14; 11,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,37; 13,8</t>
+          <t>10,28; 13,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 14,63</t>
+          <t>11,24; 14,67</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,12</t>
+          <t>7,17; 9,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,93; 13,17</t>
+          <t>10,97; 13,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,97; 14,21</t>
+          <t>11,9; 14,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 11,89</t>
+          <t>9,66; 11,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,8</t>
+          <t>11,53; 13,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,48</t>
+          <t>12,31; 14,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,66; 10,12</t>
+          <t>8,72; 10,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,48; 13,15</t>
+          <t>11,46; 13,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,0</t>
+          <t>12,34; 14,01</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, fruta o zumo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36456</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28578</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12249</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39561</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32728</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25025</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76017</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61306</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7442; 21640</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25471; 48866</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18982; 41633</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6510; 20883</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28010; 52507</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23329; 44432</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17017; 37087</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60536; 93879</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48425; 77358</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67491</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62427</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51518</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70532</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40094</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57132</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>138023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102521</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108650</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52318; 83885</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46880; 79062</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38516; 66418</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56744; 85070</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28897; 54589</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43855; 72971</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>115982; 160924</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>83076; 122648</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>88080; 128983</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15090</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29621</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31844</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33640</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52205</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33370</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48730</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81825</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65214</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8821; 25013</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20840; 42593</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22608; 44998</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24059; 46298</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39643; 67302</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23867; 45761</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37153; 63613</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66052; 101621</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51616; 80683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20331</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39768</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42284</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46355</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41156</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62615</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>86123</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>97259</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12564; 30372</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29123; 53797</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43120; 69999</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30983; 55211</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34445; 62185</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29062; 55656</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48714; 79800</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69406; 105220</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>79991; 118093</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8764</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14065</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27137</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7563</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15241</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29567</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16326</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29306</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56705</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4354; 15793</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7960; 23646</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18166; 37750</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2904; 15236</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9413; 25557</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20487; 40196</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9473; 25841</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20093; 41320</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43714; 70596</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>28621</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36502</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31463</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>42265</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39154</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40192</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>70887</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>75656</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4753; 16074</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>18392; 40761</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26817; 50360</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21431; 43659</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>30254; 55456</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>29035; 52343</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29322; 53972</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55330; 89053</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>61470; 93417</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52268</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>97474</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>115506</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95307</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>120313</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>124273</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>147575</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>217786</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>239779</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38024; 67714</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>79785; 118796</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>95715; 137059</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>78357; 115289</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>101870; 141782</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>104275; 144729</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>125180; 171506</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>190205; 247872</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>214015; 270579</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>79169</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>102124</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>94166</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>66250</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>91344</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>114014</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>145420</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>193468</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>208180</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>64090; 99188</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>85796; 121841</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>76562; 113619</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>51411; 85876</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>74102; 113550</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>95062; 134715</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>124259; 171709</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>164268; 218315</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>180380; 235475</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>264619</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>410555</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>441354</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>359288</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>447378</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>471394</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>623906</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>857934</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>912748</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>234573; 300452</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>375159; 453293</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>403547; 479964</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>326152; 398925</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>409578; 488101</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>435813; 520047</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>579619; 676510</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>798805; 912944</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>855413; 971375</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>